--- a/test/Excel_Playground_Starter.xlsx
+++ b/test/Excel_Playground_Starter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jags/HomeWork/codingdemo/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{024E3FB4-B7AD-0745-BB1E-A1721E77DC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B5D74-A3A6-5842-BBF3-3797B42F31C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Student Name</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,7 +733,9 @@
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
